--- a/public/file/template-excel-department/template-import-department.xlsx
+++ b/public/file/template-excel-department/template-import-department.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\folder\payroll\public\file\template-excel-department\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-department\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC6ADA-0C35-4BBB-9877-99E9C6BAF9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D104D908-A6B4-4BD6-BAE0-B83E0BF57547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D2AE9CF7-631C-4A16-83CB-4E58A4B30869}"/>
+    <workbookView xWindow="1860" yWindow="870" windowWidth="15375" windowHeight="7875" xr2:uid="{D2AE9CF7-631C-4A16-83CB-4E58A4B30869}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>COMPANY CODE</t>
-  </si>
-  <si>
     <t>DEPARTMENT CODE</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>BRANCH CODE</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,19 +438,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
